--- a/biology/Botanique/Marian_Raciborski/Marian_Raciborski.xlsx
+++ b/biology/Botanique/Marian_Raciborski/Marian_Raciborski.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,9 +490,11 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Marian[1] Raciborski, né le 16 septembre 1863 à Brzóstowa près de Ćmielów (Pologne) et décédé le 17 mars 1917 à Zakopane dans le Sud de la Pologne, est un botaniste, collecteur et paléontologue polonais.
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Marian Raciborski, né le 16 septembre 1863 à Brzóstowa près de Ćmielów (Pologne) et décédé le 17 mars 1917 à Zakopane dans le Sud de la Pologne, est un botaniste, collecteur et paléontologue polonais.
 </t>
         </is>
       </c>
@@ -511,12 +523,14 @@
           <t>Biographie</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Marian Raciborski étude de 1881 à 1891 la médecine à l'université Jagellon de Cracovie puis à Bonn et Munich.
 De décembre 1896 à mai 1900, il travaille à Java, en particulier au jardin botanique de Buitenzorg.
 En août 1900, il retourne en Galicie (alors dans l'empire Austro-hongrois) comme professeur à l'académie agricole de Dublany (en Ukraine) et devient en 1909 professeur de botanique à l'université de Lviv actuellement en Ukraine - (Léopol en français, Lemberg en allemand) et directeur de son jardin botanique - jusqu'en 1913, puis fonde l'institut de botanique de l'université Jagellon de Cracovie.
-Marian Raciborski était président de la Société Copernic des naturalistes polonais (1904-1905)[2].
+Marian Raciborski était président de la Société Copernic des naturalistes polonais (1904-1905).
 </t>
         </is>
       </c>
@@ -545,7 +559,9 @@
           <t>Quelques publications</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t>De nonnullis Desmidiaceis novis vel minus cognitis, quae in Polonia inventae sunt - Krakowie : W Drukarni Uniwersytetu Jagiellonskiego , 1885
 Die Pteridophyten der Flora von Buitenzorg M. Raciborski (1898)
@@ -581,7 +597,9 @@
           <t>Plantes qui lui ont été dédiées</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t>Quelques plantes lui ont été dédiées :
 × Amelasorbus raciborskiana Browicz &amp; Bugala (1958), Rosacée hybride
